--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0774B93-B647-404E-AD13-A012005C55B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19504D6-5786-42D6-BADB-7CCAEA329D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19504D6-5786-42D6-BADB-7CCAEA329D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF944B2D-E3B8-47B5-8D6B-451EED85AFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF944B2D-E3B8-47B5-8D6B-451EED85AFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DD7B46-3C09-4F76-83BA-A62CDCEF4DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DD7B46-3C09-4F76-83BA-A62CDCEF4DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C88721-3189-42B7-89AE-C4DB89A7C3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C88721-3189-42B7-89AE-C4DB89A7C3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E39ECD-4A0F-418F-BFE2-5244655D14F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E39ECD-4A0F-418F-BFE2-5244655D14F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C87889-2438-4F8C-A17D-F7459D9037A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C87889-2438-4F8C-A17D-F7459D9037A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635336C-42F6-45FF-8729-5868C96DF391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635336C-42F6-45FF-8729-5868C96DF391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C16A735-7964-4DA0-956C-B3D9952898BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
